--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
   <si>
     <t>תאריך</t>
   </si>
@@ -41,130 +41,403 @@
     <t>סה"כ כולל מע"מ</t>
   </si>
   <si>
-    <t>15/03/2018</t>
-  </si>
-  <si>
-    <t>1803-03457</t>
-  </si>
-  <si>
-    <t>גרוס חיים יהו</t>
-  </si>
-  <si>
-    <t>6444415-1</t>
-  </si>
-  <si>
-    <t>10227451</t>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26186</t>
+  </si>
+  <si>
+    <t>אברמוביץ מיכאל</t>
+  </si>
+  <si>
+    <t>5679190-8</t>
+  </si>
+  <si>
+    <t>10220892</t>
   </si>
   <si>
     <t>TYP/X-4U | FFP 4 UN | THROMB 6</t>
   </si>
   <si>
-    <t>820.00</t>
-  </si>
-  <si>
-    <t>139.40</t>
-  </si>
-  <si>
-    <t>959.40</t>
-  </si>
-  <si>
-    <t>16/03/2018</t>
-  </si>
-  <si>
-    <t>1803-03460</t>
-  </si>
-  <si>
-    <t>OLEKSANDR RAKHMANOV</t>
-  </si>
-  <si>
-    <t>PFG560233</t>
-  </si>
-  <si>
-    <t>10227481</t>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>47.60</t>
+  </si>
+  <si>
+    <t>327.60</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26201</t>
+  </si>
+  <si>
+    <t>אוזברג יבגני</t>
+  </si>
+  <si>
+    <t>33783333-9</t>
+  </si>
+  <si>
+    <t>10220963</t>
+  </si>
+  <si>
+    <t>TYP/X-M1</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>28.90</t>
+  </si>
+  <si>
+    <t>198.90</t>
+  </si>
+  <si>
+    <t>1712-26202</t>
+  </si>
+  <si>
+    <t>שמואלוב זויה אנג</t>
+  </si>
+  <si>
+    <t>30870532-6</t>
+  </si>
+  <si>
+    <t>10220967</t>
+  </si>
+  <si>
+    <t>1712-26214</t>
+  </si>
+  <si>
+    <t>באום רות</t>
+  </si>
+  <si>
+    <t>167025-6</t>
+  </si>
+  <si>
+    <t>10220973</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26226</t>
+  </si>
+  <si>
+    <t>סואעד סבחה</t>
+  </si>
+  <si>
+    <t>2103233-9</t>
+  </si>
+  <si>
+    <t>10221036</t>
+  </si>
+  <si>
+    <t>1712-26227</t>
+  </si>
+  <si>
+    <t>קאופמן מיכאל פרנק</t>
+  </si>
+  <si>
+    <t>832798-3</t>
+  </si>
+  <si>
+    <t>10221035</t>
+  </si>
+  <si>
+    <t>TYP/X-M2</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>39.10</t>
+  </si>
+  <si>
+    <t>269.10</t>
+  </si>
+  <si>
+    <t>1712-26228</t>
+  </si>
+  <si>
+    <t>אוחיון חיים</t>
+  </si>
+  <si>
+    <t>6892728-4</t>
+  </si>
+  <si>
+    <t>10221044</t>
   </si>
   <si>
     <t>TYP/X-M3 | FFP 4 UN</t>
   </si>
   <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>585.00</t>
-  </si>
-  <si>
-    <t>25/03/2018</t>
-  </si>
-  <si>
-    <t>1803-03575</t>
-  </si>
-  <si>
-    <t>לנקרי פני</t>
-  </si>
-  <si>
-    <t>5679527-1</t>
-  </si>
-  <si>
-    <t>10228065</t>
-  </si>
-  <si>
-    <t>26/03/2018</t>
-  </si>
-  <si>
-    <t>1803-03587</t>
-  </si>
-  <si>
-    <t>GERALD G KLEINSTEIN</t>
-  </si>
-  <si>
-    <t>595720-4</t>
-  </si>
-  <si>
-    <t>10228110</t>
-  </si>
-  <si>
-    <t>TYP/X-M1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>30.60</t>
-  </si>
-  <si>
-    <t>210.60</t>
-  </si>
-  <si>
-    <t>1803-03588</t>
-  </si>
-  <si>
-    <t>1803-03590</t>
-  </si>
-  <si>
-    <t>פלדמן יאיר</t>
-  </si>
-  <si>
-    <t>891810-4</t>
-  </si>
-  <si>
-    <t>10228120</t>
-  </si>
-  <si>
-    <t>28/03/2018</t>
-  </si>
-  <si>
-    <t>1803-03612</t>
-  </si>
-  <si>
-    <t>בר-לב רקפת</t>
-  </si>
-  <si>
-    <t>5561804-5</t>
-  </si>
-  <si>
-    <t>10228234</t>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26267</t>
+  </si>
+  <si>
+    <t>פוסק מנחם</t>
+  </si>
+  <si>
+    <t>769529-9</t>
+  </si>
+  <si>
+    <t>1259232</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26284</t>
+  </si>
+  <si>
+    <t>הרפז אשר</t>
+  </si>
+  <si>
+    <t>4371079-7</t>
+  </si>
+  <si>
+    <t>10221241</t>
+  </si>
+  <si>
+    <t>TYP/X-M3</t>
+  </si>
+  <si>
+    <t>1712-26292</t>
+  </si>
+  <si>
+    <t>וייסמן יעקב</t>
+  </si>
+  <si>
+    <t>5124867-2</t>
+  </si>
+  <si>
+    <t>10221270</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26308</t>
+  </si>
+  <si>
+    <t>ברש יעקב</t>
+  </si>
+  <si>
+    <t>30412821-8</t>
+  </si>
+  <si>
+    <t>10221382</t>
+  </si>
+  <si>
+    <t>1712-26309</t>
+  </si>
+  <si>
+    <t>אורליאנסקי רוסלנה</t>
+  </si>
+  <si>
+    <t>31414271-2</t>
+  </si>
+  <si>
+    <t>1022138</t>
+  </si>
+  <si>
+    <t>1712-26318</t>
+  </si>
+  <si>
+    <t>חדד חלפון</t>
+  </si>
+  <si>
+    <t>5080120-8</t>
+  </si>
+  <si>
+    <t>10221411</t>
+  </si>
+  <si>
+    <t>TYP/X-4U | THROMB 6 | FFP 4 UN</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26354</t>
+  </si>
+  <si>
+    <t>עזרן מיכאל</t>
+  </si>
+  <si>
+    <t>6748753-8</t>
+  </si>
+  <si>
+    <t>10221551</t>
+  </si>
+  <si>
+    <t>13/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26374</t>
+  </si>
+  <si>
+    <t>יוניק יהושע</t>
+  </si>
+  <si>
+    <t>5289554-7</t>
+  </si>
+  <si>
+    <t>10221611</t>
+  </si>
+  <si>
+    <t>14/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26386</t>
+  </si>
+  <si>
+    <t>יעיש אילנית</t>
+  </si>
+  <si>
+    <t>2973096-7</t>
+  </si>
+  <si>
+    <t>1021658</t>
+  </si>
+  <si>
+    <t>15/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26396</t>
+  </si>
+  <si>
+    <t>פרבר סבטלנה</t>
+  </si>
+  <si>
+    <t>32123643-2</t>
+  </si>
+  <si>
+    <t>10221484</t>
+  </si>
+  <si>
+    <t>1712-26397</t>
+  </si>
+  <si>
+    <t>16/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26398</t>
+  </si>
+  <si>
+    <t>18/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26435</t>
+  </si>
+  <si>
+    <t>OLGA PROKOPETC</t>
+  </si>
+  <si>
+    <t>P723642260</t>
+  </si>
+  <si>
+    <t>10221893</t>
+  </si>
+  <si>
+    <t>TYP/X-M6</t>
+  </si>
+  <si>
+    <t>19/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26436</t>
+  </si>
+  <si>
+    <t>זדה יעקב</t>
+  </si>
+  <si>
+    <t>5180432-6</t>
+  </si>
+  <si>
+    <t>1259484</t>
+  </si>
+  <si>
+    <t>1712-26457</t>
+  </si>
+  <si>
+    <t>נהרי שלום</t>
+  </si>
+  <si>
+    <t>5722502-1</t>
+  </si>
+  <si>
+    <t>10221967</t>
+  </si>
+  <si>
+    <t>TYP/X-4U | FFP 4 UN | THROMB 6 | CRYO X 6 | CRY #7 | CRY #8 | CRY #9 | CRY #10</t>
+  </si>
+  <si>
+    <t>25/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26508</t>
+  </si>
+  <si>
+    <t>סוחינין מיכאל</t>
+  </si>
+  <si>
+    <t>30924067-9</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1712-26517</t>
+  </si>
+  <si>
+    <t>לוי לאה</t>
+  </si>
+  <si>
+    <t>319907-2</t>
+  </si>
+  <si>
+    <t>1259619</t>
+  </si>
+  <si>
+    <t>27/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26572</t>
+  </si>
+  <si>
+    <t>שמעוני ממן אורית</t>
+  </si>
+  <si>
+    <t>2215763-0</t>
+  </si>
+  <si>
+    <t>10222348</t>
+  </si>
+  <si>
+    <t>TYP/X-M7 | FFP 4 UN | FFP #1 | FFP #2 | FFP #3 | FFP #4 | CRYO X 6 | THROMB 6</t>
+  </si>
+  <si>
+    <t>28/12/2017</t>
+  </si>
+  <si>
+    <t>1712-26573</t>
+  </si>
+  <si>
+    <t>NATALIA ABROSINA</t>
+  </si>
+  <si>
+    <t>P724216614</t>
+  </si>
+  <si>
+    <t>10222529</t>
+  </si>
+  <si>
+    <t>TYP/X-4U</t>
   </si>
 </sst>
 </file>
@@ -172,13 +445,108 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -241,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -251,6 +619,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -352,138 +739,138 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -492,6 +879,557 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
         <v>17</v>
       </c>
     </row>
